--- a/cleaned all season/bowlerset_smat.xlsx
+++ b/cleaned all season/bowlerset_smat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/Dataset_Final/all seasons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavanbandaru/Downloads/cricket-squad-selection/cleaned all season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D456FCAE-0266-B445-9454-81DE0FC4E02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BDAEE2-D861-E847-8FDC-F1443CD318A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Player</t>
   </si>
@@ -95,13 +95,22 @@
   </si>
   <si>
     <t>2019-2019</t>
+  </si>
+  <si>
+    <t>XC Bartlett</t>
+  </si>
+  <si>
+    <t>2020-2025</t>
+  </si>
+  <si>
+    <t>E Malinga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +123,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,13 +167,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,25 +483,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -808,6 +831,100 @@
         <v>17</v>
       </c>
       <c r="O7" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4">
+        <v>48</v>
+      </c>
+      <c r="E8" s="4">
+        <v>159.5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1357</v>
+      </c>
+      <c r="H8" s="4">
+        <v>60</v>
+      </c>
+      <c r="I8" s="4">
+        <v>22.61</v>
+      </c>
+      <c r="J8" s="4">
+        <v>8.49</v>
+      </c>
+      <c r="K8" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>26</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="4">
+        <v>14.18</v>
+      </c>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4">
         <v>9</v>
       </c>
     </row>
